--- a/Données/bdd_social_ze2020.xlsx
+++ b/Données/bdd_social_ze2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/BanquesCooperatives/Données/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6586C808-4A1B-8049-907B-57B6812E8A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989E834-2363-2645-A7D0-5F51CAD71206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,9 +2197,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/Données/bdd_social_ze2020.xlsx
+++ b/Données/bdd_social_ze2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/BanquesCooperatives/Données/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989E834-2363-2645-A7D0-5F51CAD71206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC66AA82-274D-0F4A-B86C-296C2B30B8B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1859,12 +1859,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1879,8 +1885,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2198,7 +2205,7 @@
   <dimension ref="A1:AH288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2213,31 +2220,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
